--- a/po_analysis_by_asin/B0CSVJZNNX_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSVJZNNX_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>150</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45320</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>120</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>480</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>600</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>60</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>660</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>680</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>840</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>1000</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>440</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>480</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>360</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>140</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>1560</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>580</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>480</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>500</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>500</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>520</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>80</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>180</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>360</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>360</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>40</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>280</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>420</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>940</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>2200</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>2040</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>2240</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>3240</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>270</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>1800</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>1530</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1000</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2980</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>1560</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>1280</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>760</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>1640</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>9720</v>

--- a/po_analysis_by_asin/B0CSVJZNNX_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSVJZNNX_po_data.xlsx
@@ -503,7 +503,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>680</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9">
@@ -758,7 +758,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1530</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="5">

--- a/po_analysis_by_asin/B0CSVJZNNX_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSVJZNNX_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -733,7 +734,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -815,6 +816,607 @@
       </c>
       <c r="B11" t="n">
         <v>9720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>67</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-766.8595842051694</v>
+      </c>
+      <c r="D2" t="n">
+        <v>822.675917319228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>98</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-720.9572726833464</v>
+      </c>
+      <c r="D3" t="n">
+        <v>943.0050331497337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>130</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-667.5152406922911</v>
+      </c>
+      <c r="D4" t="n">
+        <v>931.8595021259689</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-641.256707932605</v>
+      </c>
+      <c r="D5" t="n">
+        <v>989.1877945795201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>193</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-657.4942376451994</v>
+      </c>
+      <c r="D6" t="n">
+        <v>984.3537540968193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-607.4440507959494</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1006.789410893148</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>256</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-564.729563562996</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1120.756690539476</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>287</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-575.4790171613984</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1153.488395318568</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>319</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-482.6010843409741</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1171.882108543687</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>476</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-367.6528582809731</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1233.652259103148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>508</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-277.3058021929779</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1367.674271769789</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>539</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-250.2071588659605</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1395.670064100012</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>571</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-180.8314676368104</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1348.94253979963</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>602</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-155.528716720666</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1419.597638152831</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>634</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-219.4247787486942</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1398.233279503762</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>697</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-147.5207648343623</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1518.317213691385</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>729</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-83.30979620123532</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1524.438169053004</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>760</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-61.51887162059431</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1543.327017528362</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>823</v>
+      </c>
+      <c r="C20" t="n">
+        <v>42.73877104514025</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1618.01102023028</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>855</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.964126492375379</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1651.089065287301</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>886</v>
+      </c>
+      <c r="C22" t="n">
+        <v>120.4865946008232</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1660.647468929117</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>918</v>
+      </c>
+      <c r="C23" t="n">
+        <v>42.09719350108249</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1740.568072351379</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>949</v>
+      </c>
+      <c r="C24" t="n">
+        <v>70.85831739644409</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1761.384713313053</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C25" t="n">
+        <v>196.205485368471</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1840.508303555779</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C26" t="n">
+        <v>283.5820787089085</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1851.32798066132</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1075</v>
+      </c>
+      <c r="C27" t="n">
+        <v>255.7562636271717</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1861.775726015381</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1107</v>
+      </c>
+      <c r="C28" t="n">
+        <v>317.795583148045</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1946.951685386747</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C29" t="n">
+        <v>362.8512824070751</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1961.601633368448</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C30" t="n">
+        <v>416.4803062176863</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2037.835777138833</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C31" t="n">
+        <v>471.691110993772</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2121.636623119261</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1296</v>
+      </c>
+      <c r="C32" t="n">
+        <v>447.2025137759381</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2143.955995903635</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1328</v>
+      </c>
+      <c r="C33" t="n">
+        <v>552.2753425805778</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2180.794961413787</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1359</v>
+      </c>
+      <c r="C34" t="n">
+        <v>560.4650858113642</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2178.971526127587</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C35" t="n">
+        <v>557.7575498294461</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2216.616608121815</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1422</v>
+      </c>
+      <c r="C36" t="n">
+        <v>698.1711531031513</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2257.188241981255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1454</v>
+      </c>
+      <c r="C37" t="n">
+        <v>571.5315169705906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2245.317668582851</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1485</v>
+      </c>
+      <c r="C38" t="n">
+        <v>661.3805572040477</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2298.312784880728</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C39" t="n">
+        <v>656.3815215518237</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2328.639886526263</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C40" t="n">
+        <v>687.8828982528911</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2398.805603487999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C41" t="n">
+        <v>804.6858397575421</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2328.700591956677</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSVJZNNX_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSVJZNNX_po_data.xlsx
@@ -829,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,16 +848,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -866,12 +856,6 @@
       <c r="B2" t="n">
         <v>67</v>
       </c>
-      <c r="C2" t="n">
-        <v>-766.8595842051694</v>
-      </c>
-      <c r="D2" t="n">
-        <v>822.675917319228</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -880,12 +864,6 @@
       <c r="B3" t="n">
         <v>98</v>
       </c>
-      <c r="C3" t="n">
-        <v>-720.9572726833464</v>
-      </c>
-      <c r="D3" t="n">
-        <v>943.0050331497337</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -894,12 +872,6 @@
       <c r="B4" t="n">
         <v>130</v>
       </c>
-      <c r="C4" t="n">
-        <v>-667.5152406922911</v>
-      </c>
-      <c r="D4" t="n">
-        <v>931.8595021259689</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -908,12 +880,6 @@
       <c r="B5" t="n">
         <v>161</v>
       </c>
-      <c r="C5" t="n">
-        <v>-641.256707932605</v>
-      </c>
-      <c r="D5" t="n">
-        <v>989.1877945795201</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -922,12 +888,6 @@
       <c r="B6" t="n">
         <v>193</v>
       </c>
-      <c r="C6" t="n">
-        <v>-657.4942376451994</v>
-      </c>
-      <c r="D6" t="n">
-        <v>984.3537540968193</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -936,12 +896,6 @@
       <c r="B7" t="n">
         <v>224</v>
       </c>
-      <c r="C7" t="n">
-        <v>-607.4440507959494</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1006.789410893148</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -950,12 +904,6 @@
       <c r="B8" t="n">
         <v>256</v>
       </c>
-      <c r="C8" t="n">
-        <v>-564.729563562996</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1120.756690539476</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -964,12 +912,6 @@
       <c r="B9" t="n">
         <v>287</v>
       </c>
-      <c r="C9" t="n">
-        <v>-575.4790171613984</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1153.488395318568</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -978,12 +920,6 @@
       <c r="B10" t="n">
         <v>319</v>
       </c>
-      <c r="C10" t="n">
-        <v>-482.6010843409741</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1171.882108543687</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -992,12 +928,6 @@
       <c r="B11" t="n">
         <v>476</v>
       </c>
-      <c r="C11" t="n">
-        <v>-367.6528582809731</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1233.652259103148</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1006,12 +936,6 @@
       <c r="B12" t="n">
         <v>508</v>
       </c>
-      <c r="C12" t="n">
-        <v>-277.3058021929779</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1367.674271769789</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1020,12 +944,6 @@
       <c r="B13" t="n">
         <v>539</v>
       </c>
-      <c r="C13" t="n">
-        <v>-250.2071588659605</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1395.670064100012</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1034,12 +952,6 @@
       <c r="B14" t="n">
         <v>571</v>
       </c>
-      <c r="C14" t="n">
-        <v>-180.8314676368104</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1348.94253979963</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1048,12 +960,6 @@
       <c r="B15" t="n">
         <v>602</v>
       </c>
-      <c r="C15" t="n">
-        <v>-155.528716720666</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1419.597638152831</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1062,12 +968,6 @@
       <c r="B16" t="n">
         <v>634</v>
       </c>
-      <c r="C16" t="n">
-        <v>-219.4247787486942</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1398.233279503762</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1076,12 +976,6 @@
       <c r="B17" t="n">
         <v>697</v>
       </c>
-      <c r="C17" t="n">
-        <v>-147.5207648343623</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1518.317213691385</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1090,12 +984,6 @@
       <c r="B18" t="n">
         <v>729</v>
       </c>
-      <c r="C18" t="n">
-        <v>-83.30979620123532</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1524.438169053004</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1104,12 +992,6 @@
       <c r="B19" t="n">
         <v>760</v>
       </c>
-      <c r="C19" t="n">
-        <v>-61.51887162059431</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1543.327017528362</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1118,12 +1000,6 @@
       <c r="B20" t="n">
         <v>823</v>
       </c>
-      <c r="C20" t="n">
-        <v>42.73877104514025</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1618.01102023028</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1132,12 +1008,6 @@
       <c r="B21" t="n">
         <v>855</v>
       </c>
-      <c r="C21" t="n">
-        <v>5.964126492375379</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1651.089065287301</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1146,12 +1016,6 @@
       <c r="B22" t="n">
         <v>886</v>
       </c>
-      <c r="C22" t="n">
-        <v>120.4865946008232</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1660.647468929117</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1160,12 +1024,6 @@
       <c r="B23" t="n">
         <v>918</v>
       </c>
-      <c r="C23" t="n">
-        <v>42.09719350108249</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1740.568072351379</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1174,12 +1032,6 @@
       <c r="B24" t="n">
         <v>949</v>
       </c>
-      <c r="C24" t="n">
-        <v>70.85831739644409</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1761.384713313053</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1188,12 +1040,6 @@
       <c r="B25" t="n">
         <v>1012</v>
       </c>
-      <c r="C25" t="n">
-        <v>196.205485368471</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1840.508303555779</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1202,12 +1048,6 @@
       <c r="B26" t="n">
         <v>1044</v>
       </c>
-      <c r="C26" t="n">
-        <v>283.5820787089085</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1851.32798066132</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1216,12 +1056,6 @@
       <c r="B27" t="n">
         <v>1075</v>
       </c>
-      <c r="C27" t="n">
-        <v>255.7562636271717</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1861.775726015381</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1230,12 +1064,6 @@
       <c r="B28" t="n">
         <v>1107</v>
       </c>
-      <c r="C28" t="n">
-        <v>317.795583148045</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1946.951685386747</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1244,12 +1072,6 @@
       <c r="B29" t="n">
         <v>1170</v>
       </c>
-      <c r="C29" t="n">
-        <v>362.8512824070751</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1961.601633368448</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1258,12 +1080,6 @@
       <c r="B30" t="n">
         <v>1233</v>
       </c>
-      <c r="C30" t="n">
-        <v>416.4803062176863</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2037.835777138833</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1272,12 +1088,6 @@
       <c r="B31" t="n">
         <v>1265</v>
       </c>
-      <c r="C31" t="n">
-        <v>471.691110993772</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2121.636623119261</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1286,12 +1096,6 @@
       <c r="B32" t="n">
         <v>1296</v>
       </c>
-      <c r="C32" t="n">
-        <v>447.2025137759381</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2143.955995903635</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1300,12 +1104,6 @@
       <c r="B33" t="n">
         <v>1328</v>
       </c>
-      <c r="C33" t="n">
-        <v>552.2753425805778</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2180.794961413787</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1314,12 +1112,6 @@
       <c r="B34" t="n">
         <v>1359</v>
       </c>
-      <c r="C34" t="n">
-        <v>560.4650858113642</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2178.971526127587</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1328,12 +1120,6 @@
       <c r="B35" t="n">
         <v>1391</v>
       </c>
-      <c r="C35" t="n">
-        <v>557.7575498294461</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2216.616608121815</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1342,12 +1128,6 @@
       <c r="B36" t="n">
         <v>1422</v>
       </c>
-      <c r="C36" t="n">
-        <v>698.1711531031513</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2257.188241981255</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1356,12 +1136,6 @@
       <c r="B37" t="n">
         <v>1454</v>
       </c>
-      <c r="C37" t="n">
-        <v>571.5315169705906</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2245.317668582851</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1370,12 +1144,6 @@
       <c r="B38" t="n">
         <v>1485</v>
       </c>
-      <c r="C38" t="n">
-        <v>661.3805572040477</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2298.312784880728</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1384,12 +1152,6 @@
       <c r="B39" t="n">
         <v>1517</v>
       </c>
-      <c r="C39" t="n">
-        <v>656.3815215518237</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2328.639886526263</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1398,12 +1160,6 @@
       <c r="B40" t="n">
         <v>1548</v>
       </c>
-      <c r="C40" t="n">
-        <v>687.8828982528911</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2398.805603487999</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1411,12 +1167,6 @@
       </c>
       <c r="B41" t="n">
         <v>1580</v>
-      </c>
-      <c r="C41" t="n">
-        <v>804.6858397575421</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2328.700591956677</v>
       </c>
     </row>
   </sheetData>
